--- a/tidsapp/Dokumentation/Testprotokoll.xlsx
+++ b/tidsapp/Dokumentation/Testprotokoll.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Ovningar\tidsapp\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CBDB6B3-823F-4287-A950-8392F86D2DB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F75186E-1172-44B8-9E94-B87C8BCEB6D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="3720" xr2:uid="{746CABA9-F874-49F1-AADB-2D0BDB8C27DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>Testprotokoll, Tidsredovisning</t>
   </si>
@@ -75,20 +75,92 @@
     <t>OK id och aktivitet retruneras</t>
   </si>
   <si>
-    <t>OK 1, Skapat databas</t>
-  </si>
-  <si>
     <t>getActivity.php?id=193</t>
   </si>
   <si>
     <t>Fel (400) Post saknas</t>
+  </si>
+  <si>
+    <t>Hämta uppgiftslista</t>
+  </si>
+  <si>
+    <t>getTaskList.php</t>
+  </si>
+  <si>
+    <t>Fel (400) 'page' saknas</t>
+  </si>
+  <si>
+    <t>getTaskList.php?page=-1</t>
+  </si>
+  <si>
+    <t>getTaskList.php?page=tre</t>
+  </si>
+  <si>
+    <t>getTaskList.php?page=1</t>
+  </si>
+  <si>
+    <t>getTaskList.php?page=300</t>
+  </si>
+  <si>
+    <t>Fel (400) Felaktigt sidnummer</t>
+  </si>
+  <si>
+    <t>OK Poster returneras</t>
+  </si>
+  <si>
+    <t>Fel (400) Otillräckligt antal sidor</t>
+  </si>
+  <si>
+    <t>OK '1', 'Skapat databas'</t>
+  </si>
+  <si>
+    <t>Fel (400) Ogiltig 'page'</t>
+  </si>
+  <si>
+    <t>OK, poster returneras</t>
+  </si>
+  <si>
+    <t>Fel (400) Otillräckligt antal poster....</t>
+  </si>
+  <si>
+    <t>getTaskList.php?to=1&amp;from=1</t>
+  </si>
+  <si>
+    <t>getTaskList.php?to=2001-01-01&amp;from=1</t>
+  </si>
+  <si>
+    <t>getTaskList.php?to=2000-01-01&amp;from=2001-01-01</t>
+  </si>
+  <si>
+    <t>Fel (400) Felaktigt datum</t>
+  </si>
+  <si>
+    <t>Fel (400) 'to' ska vara efter 'from'</t>
+  </si>
+  <si>
+    <t>Fel (400) Inga poster matchar datumintervallet</t>
+  </si>
+  <si>
+    <t>getTaskList.php?to=2000-01-02&amp;from=2000-01-01</t>
+  </si>
+  <si>
+    <t>getTaskList.php?to=2001-03-01&amp;from=2001-02-29</t>
+  </si>
+  <si>
+    <t>getTaskList.php?to=2001-3-01&amp;from=2001-2-9</t>
+  </si>
+  <si>
+    <t>getTaskList.php?to=2023-01-01&amp;from=2021-01-01</t>
+  </si>
+  <si>
+    <t>Fel (400) Inga poster returnerades</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +176,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -139,21 +219,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Rubrik 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Rubrik 3" xfId="2" builtinId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,23 +570,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C2BE4A-9F0B-44D4-B350-F96D596D6606}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,124 +595,322 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>46023</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6">
         <v>46023</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="6">
         <v>46023</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="6">
+        <v>46023</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2">
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6">
         <v>46023</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2">
-        <v>46023</v>
-      </c>
-      <c r="F8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6">
+        <v>11324</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6">
+        <v>11324</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6">
+        <v>11324</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="6">
+        <v>11324</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6">
+        <v>11324</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/tidsapp/Dokumentation/Testprotokoll.xlsx
+++ b/tidsapp/Dokumentation/Testprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Ovningar\tidsapp\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F75186E-1172-44B8-9E94-B87C8BCEB6D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E863F456-276A-419F-9DC8-E3987C60651F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="3720" xr2:uid="{746CABA9-F874-49F1-AADB-2D0BDB8C27DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
   <si>
     <t>Testprotokoll, Tidsredovisning</t>
   </si>
@@ -154,6 +154,66 @@
   </si>
   <si>
     <t>Fel (400) Inga poster returnerades</t>
+  </si>
+  <si>
+    <t>Spara aktivitet</t>
+  </si>
+  <si>
+    <t>saveActivity.php via GET</t>
+  </si>
+  <si>
+    <t>saveActivity.php via POST</t>
+  </si>
+  <si>
+    <t>Fel (400) Activity saknas</t>
+  </si>
+  <si>
+    <t>saveActivity.php activity=''</t>
+  </si>
+  <si>
+    <t>Fel (400) activity får inte vara tom</t>
+  </si>
+  <si>
+    <t>saveActivity.php activity='Skapat databas'</t>
+  </si>
+  <si>
+    <t>Fel (400) aktiviteten finns redan</t>
+  </si>
+  <si>
+    <t>saveActivity.php activity='ny'</t>
+  </si>
+  <si>
+    <t>OK id=5 Aktiviteten sparades</t>
+  </si>
+  <si>
+    <t>saveActivity.php?id=-1 activity='nygammal'</t>
+  </si>
+  <si>
+    <t>Fel (400) ogiltigt id</t>
+  </si>
+  <si>
+    <t>saveActivity.php?id=tre activity='nygammal'</t>
+  </si>
+  <si>
+    <t>saveActivity.php?id=300 activity='nygammal'</t>
+  </si>
+  <si>
+    <t>Fel (400) Id finns inte</t>
+  </si>
+  <si>
+    <t>saveActivity.php?id=5 activity='nygammal'</t>
+  </si>
+  <si>
+    <t>OK result=true message=Uppdatera gick bra</t>
+  </si>
+  <si>
+    <t>Fel (405) Anropa sidan med POST</t>
+  </si>
+  <si>
+    <t>Fel (405) Anropa med POST</t>
+  </si>
+  <si>
+    <t>Fel (400) activity vara tom</t>
   </si>
 </sst>
 </file>
@@ -570,10 +630,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C2BE4A-9F0B-44D4-B350-F96D596D6606}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,7 +642,7 @@
     <col min="1" max="1" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="13.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="2"/>
@@ -815,7 +876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -828,8 +889,14 @@
       <c r="D14" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E14" s="6">
+        <v>11324</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -842,8 +909,14 @@
       <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E15" s="6">
+        <v>11324</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -856,8 +929,14 @@
       <c r="D16" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E16" s="6">
+        <v>11324</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -870,8 +949,14 @@
       <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="6">
+        <v>11324</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -884,8 +969,14 @@
       <c r="D18" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E18" s="6">
+        <v>11324</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -898,8 +989,14 @@
       <c r="D19" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E19" s="6">
+        <v>11324</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -911,6 +1008,123 @@
       </c>
       <c r="D20" s="5" t="s">
         <v>35</v>
+      </c>
+      <c r="E20" s="6">
+        <v>11324</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/tidsapp/Dokumentation/Testprotokoll.xlsx
+++ b/tidsapp/Dokumentation/Testprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Ovningar\tidsapp\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E863F456-276A-419F-9DC8-E3987C60651F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD094E6-C64E-40CB-8E4A-F0279AF01599}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="3720" xr2:uid="{746CABA9-F874-49F1-AADB-2D0BDB8C27DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="105">
   <si>
     <t>Testprotokoll, Tidsredovisning</t>
   </si>
@@ -183,9 +183,6 @@
     <t>saveActivity.php activity='ny'</t>
   </si>
   <si>
-    <t>OK id=5 Aktiviteten sparades</t>
-  </si>
-  <si>
     <t>saveActivity.php?id=-1 activity='nygammal'</t>
   </si>
   <si>
@@ -213,7 +210,137 @@
     <t>Fel (405) Anropa med POST</t>
   </si>
   <si>
-    <t>Fel (400) activity vara tom</t>
+    <t>OK id=XX Aktiviteten sparades</t>
+  </si>
+  <si>
+    <t>OK id=4 Spara lyckades</t>
+  </si>
+  <si>
+    <t>saveActivity.php?id=5 INGEN activity</t>
+  </si>
+  <si>
+    <t>Fel (400) activity saknas</t>
+  </si>
+  <si>
+    <t>saveActivity.php?id=5 activity=''</t>
+  </si>
+  <si>
+    <t>OK result=true message=1 post uppdaterades</t>
+  </si>
+  <si>
+    <t>saveActivity.php?id=5 activity='gammal'</t>
+  </si>
+  <si>
+    <t>OK result=false message=Inga poster uppdaterades</t>
+  </si>
+  <si>
+    <t>Radera aktivitet</t>
+  </si>
+  <si>
+    <t>deleteActivity.php via GET</t>
+  </si>
+  <si>
+    <t>deleteActivity.php via POST</t>
+  </si>
+  <si>
+    <t>deleteActivity.php id=-1</t>
+  </si>
+  <si>
+    <t>deleteActivity.php id=tre</t>
+  </si>
+  <si>
+    <t>deleteActivity.php id=300</t>
+  </si>
+  <si>
+    <t>OK Inga poster raderades</t>
+  </si>
+  <si>
+    <t>deleteActivity.php id=1</t>
+  </si>
+  <si>
+    <t>Fel (400) Inga poster raderades, id används i Tasks</t>
+  </si>
+  <si>
+    <t>deleteActivity-php id=5</t>
+  </si>
+  <si>
+    <t>OK 1 post raderades</t>
+  </si>
+  <si>
+    <t>deleteActivity.php id=</t>
+  </si>
+  <si>
+    <t>OK result=false message=Inga poster raderades</t>
+  </si>
+  <si>
+    <t>OK result=true message=1 post raderades</t>
+  </si>
+  <si>
+    <t>Fel (400) Fel vid radering,
+Angivet id (1) används</t>
+  </si>
+  <si>
+    <t>Spara uppgift</t>
+  </si>
+  <si>
+    <t>saveTask.php via GET</t>
+  </si>
+  <si>
+    <t>saveTask.php via POST utan parametrar</t>
+  </si>
+  <si>
+    <t>saveTask.php med alla parametrar time=-1</t>
+  </si>
+  <si>
+    <t>saveTask.php med alla parametrar time=tre</t>
+  </si>
+  <si>
+    <t>saveTask.php med alla parametrar time=12:00</t>
+  </si>
+  <si>
+    <t>saveTask.php med alla parametrar date=-1</t>
+  </si>
+  <si>
+    <t>saveTask.php med alla parametrar date=tre</t>
+  </si>
+  <si>
+    <t>saveTask.php med alla parametrar date=2001-02-29</t>
+  </si>
+  <si>
+    <t>saveTask.php med alla parametrar activityid=-1</t>
+  </si>
+  <si>
+    <t>saveTask.php med alla parametrar activityid=tre</t>
+  </si>
+  <si>
+    <t>saveTask.php med alla parametrar activityid=300</t>
+  </si>
+  <si>
+    <t>saveTask.php med alla parametrar description=''</t>
+  </si>
+  <si>
+    <t>Fel (400) activityid saknas, time saknas, date saknas</t>
+  </si>
+  <si>
+    <t>Fel (400) felaktigt angiven time</t>
+  </si>
+  <si>
+    <t>Fel (400) felaktigt angiven date</t>
+  </si>
+  <si>
+    <t>Fel (400) Får inte spara mer än 8 timmar per uppgift</t>
+  </si>
+  <si>
+    <t>Fel (400) felaktig activityid</t>
+  </si>
+  <si>
+    <t>Fel (400) angiven aktivitet saknas</t>
+  </si>
+  <si>
+    <t>OK posten sparades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saveTask.php med alla parametrar </t>
   </si>
 </sst>
 </file>
@@ -294,11 +421,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -312,6 +436,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -630,501 +760,933 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C2BE4A-9F0B-44D4-B350-F96D596D6606}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>46023</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>46023</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>46023</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>46023</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>46023</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>11324</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>11324</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>11324</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>11324</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>11324</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>11324</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>11324</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>11324</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>11324</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>11324</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>11324</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>11324</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="7">
+        <v>44593</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="7">
+        <v>44593</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="7">
+        <v>44593</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="7">
+        <v>44593</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="D25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="D30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="B31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B32" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>59</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/tidsapp/Dokumentation/Testprotokoll.xlsx
+++ b/tidsapp/Dokumentation/Testprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Ovningar\tidsapp\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD094E6-C64E-40CB-8E4A-F0279AF01599}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585B0CB4-9EED-439F-A265-3804AF3D4AA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="3720" xr2:uid="{746CABA9-F874-49F1-AADB-2D0BDB8C27DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="121">
   <si>
     <t>Testprotokoll, Tidsredovisning</t>
   </si>
@@ -341,6 +341,54 @@
   </si>
   <si>
     <t xml:space="preserve">saveTask.php med alla parametrar </t>
+  </si>
+  <si>
+    <t>Fel (400) Angiven aktivitet saknas</t>
+  </si>
+  <si>
+    <t>OK Posten sparades</t>
+  </si>
+  <si>
+    <t>Uppdatera uppgift</t>
+  </si>
+  <si>
+    <t>saveTask.php?id=5 med alla parametrar time=-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saveTask.php?id=500 med alla parametrar </t>
+  </si>
+  <si>
+    <t>Fel (400) Angivet id saknas</t>
+  </si>
+  <si>
+    <t>saveTask.php?id=5 med alla parametrar description=''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saveTask.php?id=5 med alla parametrar </t>
+  </si>
+  <si>
+    <t>saveTask.php?id=5 med alla parametrar activityid=300</t>
+  </si>
+  <si>
+    <t>saveTask.php?id=5 med alla parametrar activityid=tre</t>
+  </si>
+  <si>
+    <t>saveTask.php?id=5 med alla parametrar activityid=-1</t>
+  </si>
+  <si>
+    <t>saveTask.php?id=5 med alla parametrar date=2001-02-29</t>
+  </si>
+  <si>
+    <t>saveTask.php?id=5 med alla parametrar date=tre</t>
+  </si>
+  <si>
+    <t>saveTask.php?id=5 med alla parametrar date=-1</t>
+  </si>
+  <si>
+    <t>saveTask.php?id=5 med alla parametrar time=12:00</t>
+  </si>
+  <si>
+    <t>saveTask.php?id=5 med alla parametrar time=tre</t>
   </si>
 </sst>
 </file>
@@ -760,11 +808,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C2BE4A-9F0B-44D4-B350-F96D596D6606}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1556,6 +1604,15 @@
       <c r="C41" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="D41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
@@ -1567,8 +1624,17 @@
       <c r="C42" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -1578,8 +1644,17 @@
       <c r="C43" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -1589,8 +1664,17 @@
       <c r="C44" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>84</v>
       </c>
@@ -1600,8 +1684,17 @@
       <c r="C45" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D45" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>84</v>
       </c>
@@ -1611,8 +1704,17 @@
       <c r="C46" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D46" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
@@ -1622,8 +1724,17 @@
       <c r="C47" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>84</v>
       </c>
@@ -1633,8 +1744,17 @@
       <c r="C48" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>84</v>
       </c>
@@ -1644,8 +1764,17 @@
       <c r="C49" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>84</v>
       </c>
@@ -1655,8 +1784,17 @@
       <c r="C50" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D50" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="7">
+        <v>44594</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>84</v>
       </c>
@@ -1666,8 +1804,17 @@
       <c r="C51" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="7">
+        <v>44595</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>84</v>
       </c>
@@ -1677,8 +1824,17 @@
       <c r="C52" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="7">
+        <v>44595</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>84</v>
       </c>
@@ -1688,6 +1844,159 @@
       <c r="C53" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="D53" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="7">
+        <v>44595</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/tidsapp/Dokumentation/Testprotokoll.xlsx
+++ b/tidsapp/Dokumentation/Testprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Ovningar\tidsapp\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585B0CB4-9EED-439F-A265-3804AF3D4AA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2710320C-5826-453C-9F6A-CA0384C8B98B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="3720" xr2:uid="{746CABA9-F874-49F1-AADB-2D0BDB8C27DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="128">
   <si>
     <t>Testprotokoll, Tidsredovisning</t>
   </si>
@@ -389,6 +389,27 @@
   </si>
   <si>
     <t>saveTask.php?id=5 med alla parametrar time=tre</t>
+  </si>
+  <si>
+    <t>Radera uppgift</t>
+  </si>
+  <si>
+    <t>deleteTask.php via POST</t>
+  </si>
+  <si>
+    <t>deleteTasky.php id=</t>
+  </si>
+  <si>
+    <t>deleteTask.php id=-1</t>
+  </si>
+  <si>
+    <t>deleteTask.php id=tre</t>
+  </si>
+  <si>
+    <t>deleteTask.php id=300</t>
+  </si>
+  <si>
+    <t>deletetask.php id=5</t>
   </si>
 </sst>
 </file>
@@ -808,17 +829,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C2BE4A-9F0B-44D4-B350-F96D596D6606}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <pane ySplit="3" topLeftCell="A62" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
@@ -1854,7 +1875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>107</v>
       </c>
@@ -1864,9 +1885,17 @@
       <c r="C54" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D54" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="7">
+        <v>44596</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -1876,9 +1905,17 @@
       <c r="C55" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="7">
+        <v>44596</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
@@ -1888,9 +1925,17 @@
       <c r="C56" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D56" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="7">
+        <v>44596</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>107</v>
       </c>
@@ -1900,9 +1945,17 @@
       <c r="C57" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="7">
+        <v>44596</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>107</v>
       </c>
@@ -1912,9 +1965,17 @@
       <c r="C58" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D58" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="7">
+        <v>44596</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>107</v>
       </c>
@@ -1924,7 +1985,15 @@
       <c r="C59" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E59" s="7"/>
+      <c r="D59" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="7">
+        <v>44596</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
@@ -1936,7 +2005,15 @@
       <c r="C60" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E60" s="7"/>
+      <c r="D60" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="7">
+        <v>44596</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
@@ -1948,7 +2025,15 @@
       <c r="C61" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E61" s="7"/>
+      <c r="D61" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="7">
+        <v>44596</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
@@ -1960,7 +2045,15 @@
       <c r="C62" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E62" s="7"/>
+      <c r="D62" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="7">
+        <v>44596</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
@@ -1972,7 +2065,15 @@
       <c r="C63" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E63" s="7"/>
+      <c r="D63" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" s="7">
+        <v>44596</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -1984,9 +2085,17 @@
       <c r="C64" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D64" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" s="7">
+        <v>44596</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>107</v>
       </c>
@@ -1996,7 +2105,135 @@
       <c r="C65" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E65" s="7"/>
+      <c r="D65" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65" s="7">
+        <v>44596</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="7">
+        <v>44596</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="7">
+        <v>44596</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="7">
+        <v>44596</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="7">
+        <v>44596</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" s="7">
+        <v>44596</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71" s="7">
+        <v>44596</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/tidsapp/Dokumentation/Testprotokoll.xlsx
+++ b/tidsapp/Dokumentation/Testprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Ovningar\tidsapp\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2710320C-5826-453C-9F6A-CA0384C8B98B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D927BF0-B986-459B-B294-D95772A45136}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="3720" xr2:uid="{746CABA9-F874-49F1-AADB-2D0BDB8C27DF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="136">
   <si>
     <t>Testprotokoll, Tidsredovisning</t>
   </si>
@@ -410,6 +410,30 @@
   </si>
   <si>
     <t>deletetask.php id=5</t>
+  </si>
+  <si>
+    <t>Hämta sammanställning</t>
+  </si>
+  <si>
+    <t>getCompilation.php?to=1&amp;from=1</t>
+  </si>
+  <si>
+    <t>getCompilation.php?to=2001-01-01&amp;from=1</t>
+  </si>
+  <si>
+    <t>getCompilation.php?to=2001-03-01&amp;from=2001-02-29</t>
+  </si>
+  <si>
+    <t>getCompilation.php?to=2000-01-01&amp;from=2001-01-01</t>
+  </si>
+  <si>
+    <t>getCompilation.php?to=2023-01-01&amp;from=2021-01-01</t>
+  </si>
+  <si>
+    <t>getCompilation.php?to=2000-01-02&amp;from=2000-01-01</t>
+  </si>
+  <si>
+    <t>getCompilation.php?to=2001-3-01&amp;from=2001-2-9</t>
   </si>
 </sst>
 </file>
@@ -507,11 +531,11 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -829,16 +853,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C2BE4A-9F0B-44D4-B350-F96D596D6606}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A62" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A71" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5546875" style="4" customWidth="1"/>
@@ -848,12 +872,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1228,7 +1252,7 @@
       <c r="D21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>44593</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1248,7 +1272,7 @@
       <c r="D22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>44593</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -1268,7 +1292,7 @@
       <c r="D23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>44593</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1288,7 +1312,7 @@
       <c r="D24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>44593</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -1308,7 +1332,7 @@
       <c r="D25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>44594</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1328,7 +1352,7 @@
       <c r="D26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>44594</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -1348,7 +1372,7 @@
       <c r="D27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>44594</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -1368,7 +1392,7 @@
       <c r="D28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>44594</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -1388,7 +1412,7 @@
       <c r="D29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>44594</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1408,7 +1432,7 @@
       <c r="D30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>44594</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -1428,7 +1452,7 @@
       <c r="D31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>44594</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -1448,7 +1472,7 @@
       <c r="D32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>44594</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -1468,7 +1492,7 @@
       <c r="D33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>44594</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -1488,7 +1512,7 @@
       <c r="D34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>44594</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -1508,7 +1532,7 @@
       <c r="D35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>44594</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -1528,7 +1552,7 @@
       <c r="D36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>44594</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -1548,7 +1572,7 @@
       <c r="D37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>44594</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -1568,7 +1592,7 @@
       <c r="D38" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>44594</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -1588,7 +1612,7 @@
       <c r="D39" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>44594</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -1608,7 +1632,7 @@
       <c r="D40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <v>44594</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -1628,7 +1652,7 @@
       <c r="D41" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>44594</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -1648,7 +1672,7 @@
       <c r="D42" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>44594</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -1668,7 +1692,7 @@
       <c r="D43" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>44594</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -1688,7 +1712,7 @@
       <c r="D44" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <v>44594</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -1708,7 +1732,7 @@
       <c r="D45" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>44594</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -1728,7 +1752,7 @@
       <c r="D46" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>44594</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -1748,7 +1772,7 @@
       <c r="D47" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <v>44594</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -1768,7 +1792,7 @@
       <c r="D48" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <v>44594</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -1788,7 +1812,7 @@
       <c r="D49" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <v>44594</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -1808,7 +1832,7 @@
       <c r="D50" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <v>44594</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -1828,7 +1852,7 @@
       <c r="D51" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <v>44595</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -1848,7 +1872,7 @@
       <c r="D52" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>44595</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -1868,7 +1892,7 @@
       <c r="D53" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <v>44595</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -1888,7 +1912,7 @@
       <c r="D54" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="6">
         <v>44596</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -1908,7 +1932,7 @@
       <c r="D55" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>44596</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -1928,7 +1952,7 @@
       <c r="D56" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <v>44596</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -1948,7 +1972,7 @@
       <c r="D57" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="6">
         <v>44596</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -1968,7 +1992,7 @@
       <c r="D58" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="6">
         <v>44596</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -1988,7 +2012,7 @@
       <c r="D59" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="6">
         <v>44596</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -2008,7 +2032,7 @@
       <c r="D60" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <v>44596</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -2028,7 +2052,7 @@
       <c r="D61" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="6">
         <v>44596</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -2048,7 +2072,7 @@
       <c r="D62" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="6">
         <v>44596</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -2068,7 +2092,7 @@
       <c r="D63" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="6">
         <v>44596</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -2088,7 +2112,7 @@
       <c r="D64" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="6">
         <v>44596</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -2108,7 +2132,7 @@
       <c r="D65" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="6">
         <v>44596</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -2128,7 +2152,7 @@
       <c r="D66" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="6">
         <v>44596</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -2148,7 +2172,7 @@
       <c r="D67" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="6">
         <v>44596</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -2168,7 +2192,7 @@
       <c r="D68" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="6">
         <v>44596</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -2188,7 +2212,7 @@
       <c r="D69" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="6">
         <v>44596</v>
       </c>
       <c r="F69" s="1" t="s">
@@ -2208,7 +2232,7 @@
       <c r="D70" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="6">
         <v>44596</v>
       </c>
       <c r="F70" s="1" t="s">
@@ -2228,10 +2252,150 @@
       <c r="D71" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="6">
         <v>44596</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="5">
+        <v>44599</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="5">
+        <v>44599</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="5">
+        <v>44599</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="5">
+        <v>44599</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="5">
+        <v>44599</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="5">
+        <v>44599</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="5">
+        <v>44599</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>10</v>
       </c>
     </row>
